--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="9975" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -557,14 +557,14 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -586,7 +586,9 @@
       <c r="F1" s="2">
         <v>43627</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="2">
+        <v>43628</v>
+      </c>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -608,7 +610,9 @@
       <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -630,7 +634,9 @@
       <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -652,7 +658,9 @@
       <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -674,7 +682,9 @@
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -696,7 +706,9 @@
       <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -718,7 +730,9 @@
       <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -740,7 +754,9 @@
       <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -762,7 +778,9 @@
       <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -784,7 +802,9 @@
       <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -806,7 +826,9 @@
       <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -828,7 +850,9 @@
       <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -850,7 +874,9 @@
       <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -872,7 +898,9 @@
       <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -894,7 +922,9 @@
       <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -916,7 +946,9 @@
       <c r="F16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="H16" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="11940" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -557,14 +557,14 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -589,7 +589,9 @@
       <c r="G1" s="2">
         <v>43628</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="2">
+        <v>43629</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -613,7 +615,9 @@
       <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -637,7 +641,9 @@
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -661,7 +667,9 @@
       <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -685,7 +693,9 @@
       <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -709,7 +719,9 @@
       <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -733,7 +745,9 @@
       <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -757,7 +771,9 @@
       <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
@@ -781,7 +797,9 @@
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -805,7 +823,9 @@
       <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
@@ -829,7 +849,9 @@
       <c r="G11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -853,7 +875,9 @@
       <c r="G12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -877,7 +901,9 @@
       <c r="G13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -901,7 +927,9 @@
       <c r="G14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
@@ -925,7 +953,9 @@
       <c r="G15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -949,7 +979,9 @@
       <c r="G16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="13905" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -771,8 +771,8 @@
       <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>22</v>
+      <c r="H8" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="15870" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="29">
   <si>
     <t>王迎彬</t>
   </si>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>ⅹ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -554,109 +558,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
-        <v>43620</v>
+        <v>43631</v>
       </c>
       <c r="C1" s="2">
-        <v>43621</v>
+        <v>43630</v>
       </c>
       <c r="D1" s="2">
-        <v>43622</v>
+        <v>43629</v>
       </c>
       <c r="E1" s="2">
-        <v>43626</v>
+        <v>43628</v>
       </c>
       <c r="F1" s="2">
         <v>43627</v>
       </c>
       <c r="G1" s="2">
-        <v>43628</v>
+        <v>43626</v>
       </c>
       <c r="H1" s="2">
-        <v>43629</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43622</v>
+      </c>
+      <c r="I1" s="2">
+        <v>43621</v>
+      </c>
+      <c r="J1" s="2">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
@@ -667,11 +691,17 @@
       <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -679,7 +709,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
@@ -696,19 +726,25 @@
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>20</v>
@@ -719,11 +755,17 @@
       <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -731,7 +773,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
@@ -748,45 +790,57 @@
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
@@ -797,11 +851,17 @@
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -809,7 +869,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>21</v>
@@ -826,8 +886,14 @@
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -835,7 +901,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
@@ -852,19 +918,25 @@
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
@@ -875,16 +947,22 @@
       <c r="G12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>20</v>
@@ -904,8 +982,14 @@
       <c r="H13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -913,7 +997,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>21</v>
@@ -930,8 +1014,14 @@
       <c r="H14" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -939,7 +1029,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>21</v>
@@ -956,31 +1046,43 @@
       <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15870" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="17835" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>ⅹ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -558,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
@@ -573,39 +569,36 @@
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
-        <v>43631</v>
+        <v>43630</v>
       </c>
       <c r="C1" s="2">
-        <v>43630</v>
+        <v>43629</v>
       </c>
       <c r="D1" s="2">
-        <v>43629</v>
+        <v>43628</v>
       </c>
       <c r="E1" s="2">
-        <v>43628</v>
+        <v>43627</v>
       </c>
       <c r="F1" s="2">
-        <v>43627</v>
+        <v>43626</v>
       </c>
       <c r="G1" s="2">
-        <v>43626</v>
+        <v>43622</v>
       </c>
       <c r="H1" s="2">
-        <v>43622</v>
+        <v>43621</v>
       </c>
       <c r="I1" s="2">
-        <v>43621</v>
-      </c>
-      <c r="J1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -613,31 +606,28 @@
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -647,29 +637,26 @@
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -679,29 +666,26 @@
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -709,31 +693,28 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -752,20 +733,17 @@
       <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -779,25 +757,22 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -807,29 +782,26 @@
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,20 +820,17 @@
       <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>20</v>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -875,25 +844,22 @@
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -907,25 +873,22 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -935,29 +898,26 @@
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -967,17 +927,17 @@
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>20</v>
@@ -985,11 +945,8 @@
       <c r="I13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1003,25 +960,22 @@
         <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1035,25 +989,22 @@
         <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1069,8 +1020,8 @@
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>20</v>
+      <c r="F16" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>22</v>
@@ -1079,9 +1030,6 @@
         <v>22</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="17835" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="19800" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -554,88 +554,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43632</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43631</v>
+      </c>
+      <c r="D1" s="2">
         <v>43630</v>
       </c>
-      <c r="C1" s="2">
+      <c r="E1" s="2">
         <v>43629</v>
       </c>
-      <c r="D1" s="2">
+      <c r="F1" s="2">
         <v>43628</v>
       </c>
-      <c r="E1" s="2">
+      <c r="G1" s="2">
         <v>43627</v>
       </c>
-      <c r="F1" s="2">
+      <c r="H1" s="2">
         <v>43626</v>
       </c>
-      <c r="G1" s="2">
+      <c r="I1" s="2">
         <v>43622</v>
       </c>
-      <c r="H1" s="2">
+      <c r="J1" s="2">
         <v>43621</v>
       </c>
-      <c r="I1" s="2">
+      <c r="K1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
@@ -646,51 +656,63 @@
       <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>21</v>
@@ -699,22 +721,28 @@
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -733,17 +761,23 @@
       <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>25</v>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -757,62 +791,74 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
@@ -820,46 +866,58 @@
       <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>25</v>
+      <c r="G9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -873,27 +931,33 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>20</v>
@@ -901,52 +965,64 @@
       <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
+      <c r="G13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -960,51 +1036,63 @@
         <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1020,16 +1108,22 @@
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>22</v>
+      <c r="F16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="21765" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -554,168 +554,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43633</v>
+      </c>
+      <c r="C1" s="2">
         <v>43632</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43631</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43630</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43629</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43628</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43627</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43626</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43622</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43621</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
@@ -727,22 +730,25 @@
         <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,23 +773,23 @@
       <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>21</v>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
@@ -797,71 +803,71 @@
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>20</v>
@@ -872,28 +878,28 @@
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>21</v>
+      <c r="I9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
@@ -902,28 +908,28 @@
         <v>21</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
@@ -937,83 +943,83 @@
         <v>21</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>21</v>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>21</v>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>20</v>
@@ -1021,14 +1027,14 @@
       <c r="K13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1042,33 +1048,33 @@
         <v>21</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
@@ -1077,28 +1083,28 @@
         <v>21</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1114,8 +1120,8 @@
       <c r="G16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>22</v>
+      <c r="H16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>22</v>
@@ -1124,6 +1130,9 @@
         <v>22</v>
       </c>
       <c r="K16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="21765" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="25695" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,83 +567,95 @@
     <col min="10" max="12" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43634</v>
+      </c>
+      <c r="C1" s="2">
         <v>43633</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43632</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43631</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43630</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43629</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43628</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43627</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43626</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43622</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43621</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
@@ -653,64 +665,73 @@
       <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>21</v>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -720,8 +741,8 @@
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
@@ -733,22 +754,25 @@
         <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -776,20 +800,26 @@
       <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>21</v>
+      <c r="J6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
@@ -806,60 +836,72 @@
         <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
@@ -869,8 +911,8 @@
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>20</v>
@@ -881,28 +923,34 @@
       <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>21</v>
+      <c r="J9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>21</v>
@@ -911,25 +959,31 @@
         <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
@@ -946,60 +1000,72 @@
         <v>21</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1009,20 +1075,20 @@
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>20</v>
@@ -1030,11 +1096,17 @@
       <c r="L13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1051,33 +1123,39 @@
         <v>21</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>21</v>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>21</v>
@@ -1086,25 +1164,31 @@
         <v>21</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1123,8 +1207,8 @@
       <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>22</v>
+      <c r="I16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>22</v>
@@ -1133,6 +1217,9 @@
         <v>22</v>
       </c>
       <c r="L16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="27660" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -554,110 +554,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43635</v>
+      </c>
+      <c r="C1" s="2">
         <v>43634</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43633</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43632</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43631</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43630</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43629</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43628</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43627</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43626</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43622</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43621</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
@@ -668,70 +674,76 @@
       <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -744,8 +756,8 @@
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>21</v>
@@ -757,27 +769,30 @@
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>20</v>
@@ -803,22 +818,25 @@
       <c r="J6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>21</v>
+      <c r="K6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>21</v>
@@ -839,30 +857,33 @@
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>21</v>
@@ -870,40 +891,43 @@
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
+      <c r="H8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>21</v>
@@ -914,8 +938,8 @@
       <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>20</v>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>20</v>
@@ -926,22 +950,25 @@
       <c r="J9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>21</v>
+      <c r="K9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>20</v>
@@ -952,8 +979,8 @@
       <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>21</v>
+      <c r="F10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>21</v>
@@ -962,27 +989,30 @@
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
@@ -1003,68 +1033,74 @@
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>21</v>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1078,20 +1114,20 @@
       <c r="F13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>21</v>
+      <c r="G13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>20</v>
@@ -1099,16 +1135,19 @@
       <c r="M13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>21</v>
@@ -1126,39 +1165,42 @@
         <v>21</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>21</v>
@@ -1167,22 +1209,25 @@
         <v>21</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1210,8 +1255,8 @@
       <c r="I16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>22</v>
+      <c r="J16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>22</v>
@@ -1222,8 +1267,11 @@
       <c r="M16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="N16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1237,7 +1285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="27660" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="29625" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -554,119 +554,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9296875" customWidth="1"/>
+    <col min="2" max="11" width="14.1328125" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.06640625" customWidth="1"/>
+    <col min="15" max="15" width="13.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43636</v>
+      </c>
+      <c r="C1" s="2">
         <v>43635</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43634</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43633</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43632</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43631</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43630</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43629</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43628</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43627</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43626</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43622</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43621</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
@@ -677,78 +685,84 @@
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>20</v>
@@ -759,8 +773,8 @@
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>21</v>
@@ -772,30 +786,33 @@
         <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>20</v>
@@ -821,17 +838,20 @@
       <c r="K6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>21</v>
+      <c r="L6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -839,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
@@ -860,33 +880,36 @@
         <v>21</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
@@ -894,43 +917,46 @@
       <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>20</v>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>21</v>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>21</v>
@@ -941,8 +967,8 @@
       <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>20</v>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>20</v>
@@ -953,25 +979,28 @@
       <c r="K9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>21</v>
+      <c r="L9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>20</v>
@@ -982,8 +1011,8 @@
       <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>21</v>
+      <c r="G10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>21</v>
@@ -992,22 +1021,25 @@
         <v>21</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1047,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
@@ -1036,22 +1068,25 @@
         <v>21</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1059,51 +1094,54 @@
         <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>21</v>
+      <c r="G12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>21</v>
@@ -1117,20 +1155,20 @@
       <c r="G13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>21</v>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>20</v>
@@ -1138,19 +1176,22 @@
       <c r="N13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
@@ -1168,22 +1209,25 @@
         <v>21</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1191,19 +1235,19 @@
         <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>21</v>
@@ -1212,22 +1256,25 @@
         <v>21</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1258,8 +1305,8 @@
       <c r="J16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>22</v>
+      <c r="K16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>22</v>
@@ -1268,6 +1315,9 @@
         <v>22</v>
       </c>
       <c r="N16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF50B1CA-AE91-4DE9-AC59-731C64F8FB29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29625" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="29628" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -115,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,8 +252,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 13" xfId="1"/>
-    <cellStyle name="常规 2 2" xfId="2"/>
+    <cellStyle name="常规 13" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -268,7 +269,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,6 +344,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -378,6 +396,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,131 +588,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" customWidth="1"/>
-    <col min="2" max="11" width="14.1328125" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.06640625" customWidth="1"/>
-    <col min="15" max="15" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43637</v>
+      </c>
+      <c r="C1" s="2">
         <v>43636</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43635</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43634</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43633</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43632</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43631</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43630</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43629</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43628</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43627</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43626</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43622</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43621</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>21</v>
@@ -688,84 +729,90 @@
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="5" t="s">
+      <c r="N3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>21</v>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>20</v>
@@ -776,8 +823,8 @@
       <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>21</v>
@@ -789,33 +836,36 @@
         <v>21</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>20</v>
@@ -841,28 +891,31 @@
       <c r="L6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>21</v>
+      <c r="M6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
@@ -883,36 +936,39 @@
         <v>21</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>21</v>
@@ -920,46 +976,49 @@
       <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>20</v>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>21</v>
+      <c r="J8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>21</v>
@@ -970,8 +1029,8 @@
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>20</v>
+      <c r="I9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>20</v>
@@ -982,28 +1041,31 @@
       <c r="L9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>21</v>
+      <c r="M9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>20</v>
@@ -1014,8 +1076,8 @@
       <c r="G10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>21</v>
+      <c r="H10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>21</v>
@@ -1024,33 +1086,36 @@
         <v>21</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
@@ -1071,80 +1136,86 @@
         <v>21</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>20</v>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>21</v>
+      <c r="H12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>21</v>
@@ -1158,20 +1229,20 @@
       <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>21</v>
+      <c r="I13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>20</v>
@@ -1179,22 +1250,25 @@
       <c r="O13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>21</v>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>21</v>
@@ -1212,45 +1286,48 @@
         <v>21</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>21</v>
@@ -1259,22 +1336,25 @@
         <v>21</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1308,8 +1388,8 @@
       <c r="K16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>22</v>
+      <c r="L16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>22</v>
@@ -1320,8 +1400,11 @@
       <c r="O16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="P16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1335,7 +1418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF50B1CA-AE91-4DE9-AC59-731C64F8FB29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FF4F45-F30F-4E5B-AC4E-A42A9BF963E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29628" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -604,57 +604,60 @@
     <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43638</v>
+      </c>
+      <c r="C1" s="2">
         <v>43637</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43636</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43635</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43634</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43633</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43632</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43631</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43630</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43629</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43628</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43627</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43626</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43622</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43621</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -662,66 +665,69 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>21</v>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>21</v>
@@ -732,79 +738,85 @@
       <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>21</v>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="O3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>21</v>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -812,10 +824,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>20</v>
@@ -826,8 +838,8 @@
       <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>21</v>
@@ -839,22 +851,25 @@
         <v>21</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="N5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -862,13 +877,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>20</v>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>20</v>
@@ -894,17 +909,20 @@
       <c r="M6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>21</v>
+      <c r="N6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -912,13 +930,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>21</v>
@@ -939,39 +957,42 @@
         <v>21</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>21</v>
@@ -979,32 +1000,35 @@
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>21</v>
+      <c r="K8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1012,16 +1036,16 @@
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>21</v>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>21</v>
@@ -1032,8 +1056,8 @@
       <c r="I9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>20</v>
+      <c r="J9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>20</v>
@@ -1044,31 +1068,34 @@
       <c r="M9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>21</v>
+      <c r="N9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>20</v>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>20</v>
@@ -1079,8 +1106,8 @@
       <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>21</v>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>21</v>
@@ -1089,22 +1116,25 @@
         <v>21</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1112,13 +1142,13 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>21</v>
@@ -1139,72 +1169,78 @@
         <v>21</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>20</v>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>21</v>
+      <c r="I12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1212,13 +1248,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>21</v>
@@ -1232,20 +1268,20 @@
       <c r="I13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>21</v>
+      <c r="J13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>20</v>
@@ -1253,8 +1289,11 @@
       <c r="P13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1262,16 +1301,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>21</v>
+      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>21</v>
@@ -1289,22 +1328,25 @@
         <v>21</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1312,25 +1354,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>21</v>
@@ -1339,22 +1381,25 @@
         <v>21</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1391,8 +1436,8 @@
       <c r="L16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>22</v>
+      <c r="M16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>22</v>
@@ -1401,6 +1446,9 @@
         <v>22</v>
       </c>
       <c r="P16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FF4F45-F30F-4E5B-AC4E-A42A9BF963E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE132730-61F5-403C-9162-9984E7543150}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29628" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -604,60 +604,63 @@
     <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43639</v>
+      </c>
+      <c r="C1" s="2">
         <v>43638</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43637</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43636</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43635</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43634</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43633</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43632</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43631</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43630</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43629</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43628</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43627</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43626</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43622</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>43621</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -668,69 +671,72 @@
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>21</v>
+      <c r="M2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
@@ -741,29 +747,32 @@
       <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>21</v>
+      <c r="K3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -773,50 +782,53 @@
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>21</v>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -827,10 +839,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>20</v>
@@ -841,8 +853,8 @@
       <c r="H5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>21</v>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>21</v>
@@ -854,22 +866,25 @@
         <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="O5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -880,13 +895,13 @@
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>20</v>
@@ -912,17 +927,20 @@
       <c r="N6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>21</v>
+      <c r="O6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -933,13 +951,13 @@
         <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>21</v>
@@ -960,42 +978,45 @@
         <v>21</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>21</v>
@@ -1003,32 +1024,35 @@
       <c r="I8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>20</v>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>21</v>
+      <c r="L8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1039,16 +1063,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>21</v>
@@ -1059,8 +1083,8 @@
       <c r="J9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>20</v>
+      <c r="K9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>20</v>
@@ -1071,34 +1095,37 @@
       <c r="N9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>21</v>
+      <c r="O9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>20</v>
@@ -1109,8 +1136,8 @@
       <c r="I10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>21</v>
+      <c r="J10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>21</v>
@@ -1119,39 +1146,42 @@
         <v>21</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>21</v>
@@ -1172,22 +1202,25 @@
         <v>21</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1197,50 +1230,53 @@
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>20</v>
+      <c r="H12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>21</v>
+      <c r="J12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1251,13 +1287,13 @@
         <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>21</v>
@@ -1271,20 +1307,20 @@
       <c r="J13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>21</v>
+      <c r="K13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>20</v>
@@ -1292,8 +1328,11 @@
       <c r="Q13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1304,16 +1343,16 @@
         <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>21</v>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>21</v>
@@ -1331,22 +1370,25 @@
         <v>21</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1357,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>21</v>
@@ -1384,22 +1426,25 @@
         <v>21</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1439,8 +1484,8 @@
       <c r="M16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>22</v>
+      <c r="N16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>22</v>
@@ -1449,6 +1494,9 @@
         <v>22</v>
       </c>
       <c r="Q16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE132730-61F5-403C-9162-9984E7543150}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FD7A02-A126-481F-96D9-8E40075FE349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29628" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -604,63 +604,66 @@
     <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43640</v>
+      </c>
+      <c r="C1" s="2">
         <v>43639</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43638</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43637</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43636</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43635</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43634</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43633</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43632</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43631</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43630</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43629</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43628</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43627</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43626</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>43622</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>43621</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -674,49 +677,52 @@
         <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -726,20 +732,20 @@
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>21</v>
@@ -750,34 +756,37 @@
       <c r="K3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>21</v>
+      <c r="L3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>21</v>
@@ -785,50 +794,53 @@
       <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>21</v>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>21</v>
+      <c r="L4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -842,10 +854,10 @@
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>20</v>
@@ -856,8 +868,8 @@
       <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
+      <c r="J5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>21</v>
@@ -869,22 +881,25 @@
         <v>21</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="P5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -898,13 +913,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>20</v>
@@ -930,17 +945,20 @@
       <c r="O6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>21</v>
+      <c r="P6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -954,13 +972,13 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>21</v>
@@ -981,45 +999,48 @@
         <v>21</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
+      <c r="H8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>21</v>
@@ -1027,32 +1048,35 @@
       <c r="J8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>20</v>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>21</v>
+      <c r="M8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,16 +1090,16 @@
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>21</v>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>21</v>
@@ -1086,8 +1110,8 @@
       <c r="K9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>20</v>
+      <c r="L9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>20</v>
@@ -1098,37 +1122,40 @@
       <c r="O9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>21</v>
+      <c r="P9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>20</v>
+      <c r="G10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>20</v>
@@ -1139,8 +1166,8 @@
       <c r="J10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>21</v>
+      <c r="K10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>21</v>
@@ -1149,42 +1176,45 @@
         <v>21</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>21</v>
@@ -1205,22 +1235,25 @@
         <v>21</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1233,55 +1266,58 @@
       <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>20</v>
+      <c r="I12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>21</v>
+      <c r="K12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1290,13 +1326,13 @@
         <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>21</v>
@@ -1310,20 +1346,20 @@
       <c r="K13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>21</v>
+      <c r="L13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>20</v>
@@ -1331,8 +1367,11 @@
       <c r="R13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1346,16 +1385,16 @@
         <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>21</v>
+      <c r="G14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>21</v>
@@ -1373,22 +1412,25 @@
         <v>21</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1402,25 +1444,25 @@
         <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>21</v>
@@ -1429,22 +1471,25 @@
         <v>21</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1487,8 +1532,8 @@
       <c r="N16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>22</v>
+      <c r="O16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>22</v>
@@ -1497,6 +1542,9 @@
         <v>22</v>
       </c>
       <c r="R16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FD7A02-A126-481F-96D9-8E40075FE349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29628" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31590" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -116,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,8 +251,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 13" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 13" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -269,7 +268,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -344,23 +343,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -396,23 +378,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -588,87 +553,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="2" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.125" customWidth="1"/>
+    <col min="15" max="15" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43641</v>
+      </c>
+      <c r="C1" s="2">
         <v>43640</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43639</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43638</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43637</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43636</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43635</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43634</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43633</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43632</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43631</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43630</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43629</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43628</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43627</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>43626</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>43622</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>43621</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
@@ -680,49 +648,52 @@
         <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>21</v>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>21</v>
+      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -735,20 +706,20 @@
       <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>21</v>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>21</v>
@@ -759,37 +730,40 @@
       <c r="L3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>21</v>
+      <c r="M3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="5" t="s">
+      <c r="R3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>21</v>
@@ -797,50 +771,53 @@
       <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>21</v>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>21</v>
+      <c r="M4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -857,10 +834,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>20</v>
@@ -871,8 +848,8 @@
       <c r="J5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>21</v>
+      <c r="K5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>21</v>
@@ -884,27 +861,30 @@
         <v>21</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="Q5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
@@ -916,13 +896,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>20</v>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>20</v>
@@ -948,17 +928,20 @@
       <c r="P6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>21</v>
+      <c r="Q6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -975,13 +958,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>21</v>
@@ -1002,48 +985,51 @@
         <v>21</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>21</v>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>21</v>
@@ -1051,32 +1037,35 @@
       <c r="K8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>20</v>
+      <c r="L8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>21</v>
+      <c r="N8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,16 +1082,16 @@
         <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>21</v>
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>21</v>
@@ -1113,8 +1102,8 @@
       <c r="L9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>20</v>
+      <c r="M9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>20</v>
@@ -1125,17 +1114,20 @@
       <c r="P9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>21</v>
+      <c r="Q9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1145,20 +1137,20 @@
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
+      <c r="F10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>20</v>
+      <c r="H10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>20</v>
@@ -1169,8 +1161,8 @@
       <c r="K10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>21</v>
+      <c r="L10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -1179,45 +1171,48 @@
         <v>21</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>21</v>
@@ -1238,27 +1233,30 @@
         <v>21</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>20</v>
@@ -1269,58 +1267,61 @@
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>25</v>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>20</v>
+      <c r="J12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>21</v>
+      <c r="L12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>21</v>
@@ -1329,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>21</v>
@@ -1349,20 +1350,20 @@
       <c r="L13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>21</v>
+      <c r="M13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>20</v>
@@ -1370,13 +1371,16 @@
       <c r="S13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1388,16 +1392,16 @@
         <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>21</v>
+      <c r="H14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>21</v>
@@ -1415,27 +1419,30 @@
         <v>21</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1447,25 +1454,25 @@
         <v>21</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>21</v>
@@ -1474,22 +1481,25 @@
         <v>21</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1535,8 +1545,8 @@
       <c r="O16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>22</v>
+      <c r="P16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q16" s="5" t="s">
         <v>22</v>
@@ -1547,8 +1557,11 @@
       <c r="S16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="T16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1562,7 +1575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="31590" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="33555" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,77 +569,80 @@
     <col min="15" max="15" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43642</v>
+      </c>
+      <c r="C1" s="2">
         <v>43641</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43640</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43639</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43638</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43637</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43636</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43635</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43634</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43633</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43632</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43631</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43630</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43629</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43628</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>43627</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>43626</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>43622</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>43621</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>21</v>
@@ -651,49 +654,52 @@
         <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>21</v>
+      <c r="M2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>21</v>
+      <c r="P2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -709,20 +715,20 @@
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>21</v>
@@ -733,40 +739,43 @@
       <c r="M3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>21</v>
+      <c r="N3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="5" t="s">
+      <c r="S3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
@@ -774,55 +783,58 @@
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>21</v>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>21</v>
+      <c r="N4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>21</v>
@@ -837,10 +849,10 @@
         <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>20</v>
@@ -851,8 +863,8 @@
       <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>21</v>
+      <c r="L5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
@@ -864,30 +876,33 @@
         <v>21</v>
       </c>
       <c r="P5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="R5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
@@ -899,13 +914,13 @@
         <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>20</v>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>20</v>
@@ -931,22 +946,25 @@
       <c r="Q6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>21</v>
+      <c r="R6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>21</v>
@@ -961,13 +979,13 @@
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>21</v>
@@ -988,22 +1006,25 @@
         <v>21</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1013,26 +1034,26 @@
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>21</v>
+      <c r="J8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>21</v>
@@ -1040,37 +1061,40 @@
       <c r="L8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>20</v>
+      <c r="M8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>21</v>
+      <c r="O8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
@@ -1085,16 +1109,16 @@
         <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>21</v>
+      <c r="I9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>21</v>
@@ -1105,8 +1129,8 @@
       <c r="M9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>20</v>
+      <c r="N9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>20</v>
@@ -1117,22 +1141,25 @@
       <c r="Q9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>21</v>
+      <c r="R9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>21</v>
@@ -1140,20 +1167,20 @@
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>20</v>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>25</v>
+      <c r="G10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>20</v>
+      <c r="I10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>20</v>
@@ -1164,8 +1191,8 @@
       <c r="L10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>21</v>
+      <c r="M10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>21</v>
@@ -1174,48 +1201,51 @@
         <v>21</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>21</v>
@@ -1236,30 +1266,33 @@
         <v>21</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>20</v>
@@ -1270,61 +1303,64 @@
       <c r="F12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>25</v>
+      <c r="G12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>20</v>
+      <c r="K12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>21</v>
+      <c r="M12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>21</v>
@@ -1333,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>21</v>
@@ -1353,20 +1389,20 @@
       <c r="M13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>21</v>
+      <c r="N13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>20</v>
@@ -1374,16 +1410,19 @@
       <c r="T13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>21</v>
@@ -1395,16 +1434,16 @@
         <v>21</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>21</v>
+      <c r="I14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>21</v>
@@ -1422,30 +1461,33 @@
         <v>21</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>21</v>
@@ -1457,25 +1499,25 @@
         <v>21</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>21</v>
@@ -1484,22 +1526,25 @@
         <v>21</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1548,8 +1593,8 @@
       <c r="P16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="5" t="s">
-        <v>22</v>
+      <c r="Q16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>22</v>
@@ -1558,6 +1603,9 @@
         <v>22</v>
       </c>
       <c r="T16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="33555" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="35520" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="28">
   <si>
     <t>王迎彬</t>
   </si>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,83 +569,86 @@
     <col min="15" max="15" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43643</v>
+      </c>
+      <c r="C1" s="2">
         <v>43642</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43641</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43640</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43639</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43638</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43637</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43636</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43635</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43634</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43633</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43632</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43631</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43630</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43629</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>43628</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>43627</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>43626</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>43622</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>43621</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
@@ -657,54 +660,57 @@
         <v>21</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>21</v>
+      <c r="Q2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>20</v>
@@ -718,20 +724,20 @@
       <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>21</v>
@@ -742,43 +748,46 @@
       <c r="N3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>21</v>
+      <c r="O3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="5" t="s">
+      <c r="T3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>21</v>
@@ -786,58 +795,61 @@
       <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>21</v>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>21</v>
+      <c r="O4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
@@ -852,10 +864,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>20</v>
@@ -866,8 +878,8 @@
       <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>21</v>
+      <c r="M5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>21</v>
@@ -879,22 +891,25 @@
         <v>21</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="S5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -904,8 +919,8 @@
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
@@ -917,13 +932,13 @@
         <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>20</v>
+      <c r="J6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>20</v>
@@ -949,25 +964,28 @@
       <c r="R6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>21</v>
+      <c r="S6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
@@ -982,13 +1000,13 @@
         <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>21</v>
@@ -1009,27 +1027,30 @@
         <v>21</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>20</v>
@@ -1037,26 +1058,26 @@
       <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>21</v>
+      <c r="K8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>21</v>
@@ -1064,40 +1085,43 @@
       <c r="M8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>20</v>
+      <c r="N8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>21</v>
+      <c r="P8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>21</v>
@@ -1112,16 +1136,16 @@
         <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>21</v>
+      <c r="J9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>21</v>
@@ -1132,8 +1156,8 @@
       <c r="N9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>20</v>
+      <c r="O9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>20</v>
@@ -1144,25 +1168,28 @@
       <c r="R9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>21</v>
+      <c r="S9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>21</v>
@@ -1170,20 +1197,20 @@
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>25</v>
+      <c r="H10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>20</v>
+      <c r="J10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>20</v>
@@ -1194,8 +1221,8 @@
       <c r="M10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>21</v>
+      <c r="N10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>21</v>
@@ -1204,22 +1231,25 @@
         <v>21</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1229,26 +1259,26 @@
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>21</v>
@@ -1269,33 +1299,36 @@
         <v>21</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
@@ -1306,64 +1339,67 @@
       <c r="G12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>25</v>
+      <c r="H12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>20</v>
+      <c r="L12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>21</v>
+      <c r="N12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>21</v>
@@ -1372,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>21</v>
@@ -1392,20 +1428,20 @@
       <c r="N13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>21</v>
+      <c r="O13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>20</v>
@@ -1413,19 +1449,22 @@
       <c r="U13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
@@ -1437,16 +1476,16 @@
         <v>21</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>21</v>
+      <c r="J14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>21</v>
@@ -1464,33 +1503,36 @@
         <v>21</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>20</v>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
@@ -1502,25 +1544,25 @@
         <v>21</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>21</v>
@@ -1529,22 +1571,25 @@
         <v>21</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1596,8 +1641,8 @@
       <c r="Q16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>22</v>
+      <c r="R16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="S16" s="5" t="s">
         <v>22</v>
@@ -1606,6 +1651,9 @@
         <v>22</v>
       </c>
       <c r="U16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="35520" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="37485" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="29">
   <si>
     <t>王迎彬</t>
   </si>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>ⅹ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -554,104 +558,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.125" customWidth="1"/>
-    <col min="15" max="15" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" customWidth="1"/>
+    <col min="2" max="11" width="14.1328125" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.1328125" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43644</v>
+      </c>
+      <c r="C1" s="2">
         <v>43643</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43642</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43641</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43640</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43639</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43638</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43637</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43636</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43635</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43634</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43633</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43632</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43631</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43630</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>43629</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>43628</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>43627</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>43626</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>43622</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>43621</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>21</v>
@@ -663,57 +670,60 @@
         <v>21</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>21</v>
+      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>21</v>
+      <c r="R2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>20</v>
@@ -727,20 +737,20 @@
       <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -751,46 +761,49 @@
       <c r="O3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>21</v>
+      <c r="P3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="5" t="s">
+      <c r="U3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>21</v>
@@ -798,50 +811,53 @@
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>21</v>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>21</v>
+      <c r="P4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -849,10 +865,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
@@ -867,10 +883,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
@@ -881,8 +897,8 @@
       <c r="M5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>21</v>
+      <c r="N5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>21</v>
@@ -894,22 +910,25 @@
         <v>21</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -922,8 +941,8 @@
       <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>21</v>
@@ -935,13 +954,13 @@
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>20</v>
+      <c r="K6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>20</v>
@@ -967,17 +986,20 @@
       <c r="S6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>21</v>
+      <c r="T6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -985,10 +1007,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
@@ -1003,13 +1025,13 @@
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>21</v>
@@ -1030,30 +1052,33 @@
         <v>21</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>20</v>
@@ -1061,26 +1086,26 @@
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>21</v>
+      <c r="L8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
@@ -1088,32 +1113,35 @@
       <c r="N8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>20</v>
+      <c r="O8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>21</v>
+      <c r="Q8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,10 +1149,10 @@
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>21</v>
@@ -1139,16 +1167,16 @@
         <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>21</v>
+      <c r="K9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
@@ -1159,8 +1187,8 @@
       <c r="O9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>20</v>
+      <c r="P9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>20</v>
@@ -1171,17 +1199,20 @@
       <c r="S9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>21</v>
+      <c r="T9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1189,10 +1220,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
@@ -1200,20 +1231,20 @@
       <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>20</v>
+      <c r="G10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>25</v>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>20</v>
+      <c r="K10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>20</v>
@@ -1224,8 +1255,8 @@
       <c r="N10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>21</v>
+      <c r="O10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>21</v>
@@ -1234,27 +1265,30 @@
         <v>21</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>20</v>
@@ -1262,26 +1296,26 @@
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>21</v>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>21</v>
@@ -1302,36 +1336,39 @@
         <v>21</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -1342,67 +1379,70 @@
       <c r="H12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>25</v>
+      <c r="I12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>20</v>
+      <c r="M12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>21</v>
+      <c r="O12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>21</v>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>21</v>
@@ -1411,13 +1451,13 @@
         <v>21</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>21</v>
@@ -1431,20 +1471,20 @@
       <c r="O13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>21</v>
+      <c r="P13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="U13" s="6" t="s">
         <v>20</v>
@@ -1452,8 +1492,11 @@
       <c r="V13" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="W13" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1461,13 +1504,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>21</v>
@@ -1479,16 +1522,16 @@
         <v>21</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>21</v>
+      <c r="K14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>21</v>
@@ -1506,36 +1549,39 @@
         <v>21</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W14" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>21</v>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>21</v>
@@ -1547,25 +1593,25 @@
         <v>21</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>21</v>
@@ -1574,22 +1620,25 @@
         <v>21</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1644,8 +1693,8 @@
       <c r="R16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="5" t="s">
-        <v>22</v>
+      <c r="S16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>22</v>
@@ -1656,8 +1705,11 @@
       <c r="V16" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="W16" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1671,7 +1723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="37485" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="41415" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="29">
   <si>
     <t>王迎彬</t>
   </si>
@@ -558,93 +558,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" customWidth="1"/>
-    <col min="2" max="11" width="14.1328125" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.1328125" customWidth="1"/>
-    <col min="15" max="15" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="14.1328125" customWidth="1"/>
+    <col min="12" max="22" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="13.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43645</v>
+      </c>
+      <c r="D1" s="2">
         <v>43644</v>
       </c>
-      <c r="C1" s="2">
+      <c r="E1" s="2">
         <v>43643</v>
       </c>
-      <c r="D1" s="2">
+      <c r="F1" s="2">
         <v>43642</v>
       </c>
-      <c r="E1" s="2">
+      <c r="G1" s="2">
         <v>43641</v>
       </c>
-      <c r="F1" s="2">
+      <c r="H1" s="2">
         <v>43640</v>
       </c>
-      <c r="G1" s="2">
+      <c r="I1" s="2">
         <v>43639</v>
       </c>
-      <c r="H1" s="2">
+      <c r="J1" s="2">
         <v>43638</v>
       </c>
-      <c r="I1" s="2">
+      <c r="K1" s="2">
         <v>43637</v>
       </c>
-      <c r="J1" s="2">
+      <c r="L1" s="2">
         <v>43636</v>
       </c>
-      <c r="K1" s="2">
+      <c r="M1" s="2">
         <v>43635</v>
       </c>
-      <c r="L1" s="2">
+      <c r="N1" s="2">
         <v>43634</v>
       </c>
-      <c r="M1" s="2">
+      <c r="O1" s="2">
         <v>43633</v>
       </c>
-      <c r="N1" s="2">
+      <c r="P1" s="2">
         <v>43632</v>
       </c>
-      <c r="O1" s="2">
+      <c r="Q1" s="2">
         <v>43631</v>
       </c>
-      <c r="P1" s="2">
+      <c r="R1" s="2">
         <v>43630</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="S1" s="2">
         <v>43629</v>
       </c>
-      <c r="R1" s="2">
+      <c r="T1" s="2">
         <v>43628</v>
       </c>
-      <c r="S1" s="2">
+      <c r="U1" s="2">
         <v>43627</v>
       </c>
-      <c r="T1" s="2">
+      <c r="V1" s="2">
         <v>43626</v>
       </c>
-      <c r="U1" s="2">
+      <c r="W1" s="2">
         <v>43622</v>
       </c>
-      <c r="V1" s="2">
+      <c r="X1" s="2">
         <v>43621</v>
       </c>
-      <c r="W1" s="2">
+      <c r="Y1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -654,17 +660,17 @@
       <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>21</v>
@@ -673,63 +679,69 @@
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>20</v>
+      <c r="P2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>20</v>
+      <c r="R2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>21</v>
+      <c r="U2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>20</v>
@@ -740,23 +752,23 @@
       <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>21</v>
@@ -764,8 +776,8 @@
       <c r="P3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>20</v>
+      <c r="Q3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>21</v>
@@ -776,55 +788,61 @@
       <c r="T3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="5" t="s">
+      <c r="U3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>20</v>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>20</v>
@@ -832,49 +850,55 @@
       <c r="O4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>20</v>
+      <c r="P4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>25</v>
+      <c r="S4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="X4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>21</v>
@@ -886,13 +910,13 @@
         <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>20</v>
@@ -900,11 +924,11 @@
       <c r="N5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>21</v>
+      <c r="O5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>21</v>
@@ -913,22 +937,28 @@
         <v>21</v>
       </c>
       <c r="S5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="V5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="W5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="X5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -944,11 +974,11 @@
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>21</v>
@@ -957,16 +987,16 @@
         <v>21</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>20</v>
@@ -989,17 +1019,23 @@
       <c r="T6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>25</v>
+      <c r="U6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="X6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1007,16 +1043,16 @@
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>21</v>
@@ -1028,16 +1064,16 @@
         <v>21</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>21</v>
@@ -1055,42 +1091,48 @@
         <v>21</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="W7" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="X7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>20</v>
@@ -1098,50 +1140,56 @@
       <c r="I8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>21</v>
+      <c r="J8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>25</v>
+      <c r="P8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="W8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1149,16 +1197,16 @@
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>21</v>
@@ -1170,19 +1218,19 @@
         <v>21</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>21</v>
@@ -1190,11 +1238,11 @@
       <c r="P9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>20</v>
+      <c r="Q9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>20</v>
@@ -1202,17 +1250,23 @@
       <c r="T9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>25</v>
+      <c r="U9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="X9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1220,37 +1274,37 @@
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>20</v>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>20</v>
@@ -1258,49 +1312,55 @@
       <c r="O10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>21</v>
+      <c r="P10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="W10" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="X10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
+      <c r="F11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>20</v>
@@ -1308,20 +1368,20 @@
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>21</v>
+      <c r="I11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>21</v>
@@ -1339,33 +1399,39 @@
         <v>21</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="W11" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="X11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
@@ -1373,8 +1439,8 @@
       <c r="F12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>20</v>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>20</v>
@@ -1382,26 +1448,26 @@
       <c r="I12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>25</v>
+      <c r="J12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>20</v>
@@ -1409,23 +1475,29 @@
       <c r="R12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>25</v>
+      <c r="S12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="X12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,35 +1507,35 @@
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>21</v>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>21</v>
@@ -1474,29 +1546,35 @@
       <c r="P13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="6" t="s">
-        <v>20</v>
+      <c r="Q13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>25</v>
+      <c r="S13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>20</v>
+      <c r="U13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="X13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1504,19 +1582,19 @@
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>21</v>
@@ -1525,19 +1603,19 @@
         <v>21</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>21</v>
@@ -1552,22 +1630,28 @@
         <v>21</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="X14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1575,19 +1659,19 @@
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>21</v>
@@ -1596,16 +1680,16 @@
         <v>21</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>21</v>
@@ -1616,29 +1700,35 @@
       <c r="P15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>21</v>
+      <c r="Q15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="X15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1696,16 +1786,22 @@
       <c r="S16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>22</v>
+      <c r="T16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="W16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/云研发二处岗前培训提报情况统计.xlsx
+++ b/云研发二处岗前培训提报情况统计.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="41415" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="43380" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="29">
   <si>
     <t>王迎彬</t>
   </si>
@@ -558,99 +559,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="14.1328125" customWidth="1"/>
-    <col min="12" max="22" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="22" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C1" s="2">
         <v>43646</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43645</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43644</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43643</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43642</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43641</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43640</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43639</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43638</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43637</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43636</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43635</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43634</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43633</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>43632</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>43631</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>43630</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>43629</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>43628</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>43627</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>43626</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>43622</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>43621</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>43620</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -666,14 +670,14 @@
       <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>21</v>
@@ -685,49 +689,52 @@
         <v>21</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="Q2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>21</v>
+      <c r="R2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>21</v>
+      <c r="U2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -737,14 +744,14 @@
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>20</v>
@@ -758,20 +765,20 @@
       <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>21</v>
+      <c r="N3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>21</v>
@@ -782,55 +789,58 @@
       <c r="R3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>21</v>
+      <c r="S3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="5" t="s">
+      <c r="X3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>21</v>
@@ -838,70 +848,73 @@
       <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>21</v>
+      <c r="L4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>21</v>
+      <c r="S4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>21</v>
@@ -916,10 +929,10 @@
         <v>21</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>20</v>
@@ -930,8 +943,8 @@
       <c r="P5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>21</v>
+      <c r="Q5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>21</v>
@@ -943,22 +956,25 @@
         <v>21</v>
       </c>
       <c r="U5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="W5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -980,8 +996,8 @@
       <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
+      <c r="H6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>21</v>
@@ -993,13 +1009,13 @@
         <v>21</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>20</v>
+      <c r="N6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>20</v>
@@ -1025,17 +1041,20 @@
       <c r="V6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>21</v>
+      <c r="W6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1043,19 +1062,19 @@
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>21</v>
@@ -1070,13 +1089,13 @@
         <v>21</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>21</v>
@@ -1097,39 +1116,42 @@
         <v>21</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>20</v>
@@ -1137,26 +1159,26 @@
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>21</v>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>21</v>
+      <c r="O8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>21</v>
@@ -1164,32 +1186,35 @@
       <c r="Q8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>20</v>
+      <c r="R8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="4" t="s">
-        <v>21</v>
+      <c r="T8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1197,19 +1222,19 @@
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>21</v>
@@ -1224,16 +1249,16 @@
         <v>21</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>21</v>
+      <c r="N9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>21</v>
@@ -1244,8 +1269,8 @@
       <c r="R9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="6" t="s">
-        <v>20</v>
+      <c r="S9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>20</v>
@@ -1256,17 +1281,20 @@
       <c r="V9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W9" s="4" t="s">
-        <v>21</v>
+      <c r="W9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1274,19 +1302,19 @@
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>21</v>
@@ -1294,20 +1322,20 @@
       <c r="I10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>20</v>
+      <c r="J10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>25</v>
+      <c r="L10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>20</v>
+      <c r="N10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>20</v>
@@ -1318,8 +1346,8 @@
       <c r="Q10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>21</v>
+      <c r="R10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>21</v>
@@ -1328,22 +1356,25 @@
         <v>21</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1351,40 +1382,40 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>21</v>
+      <c r="H11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>21</v>
@@ -1405,45 +1436,48 @@
         <v>21</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>20</v>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>20</v>
@@ -1454,55 +1488,58 @@
       <c r="K12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>25</v>
+      <c r="L12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>20</v>
+      <c r="P12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>21</v>
+      <c r="R12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>20</v>
@@ -1513,17 +1550,17 @@
       <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>21</v>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>21</v>
@@ -1532,13 +1569,13 @@
         <v>21</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>21</v>
@@ -1552,20 +1589,20 @@
       <c r="R13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>21</v>
+      <c r="S13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="X13" s="6" t="s">
         <v>20</v>
@@ -1573,8 +1610,11 @@
       <c r="Y13" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="Z13" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1582,22 +1622,22 @@
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>21</v>
@@ -1609,16 +1649,16 @@
         <v>21</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>21</v>
+      <c r="N14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>21</v>
@@ -1636,22 +1676,25 @@
         <v>21</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z14" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1659,22 +1702,22 @@
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>20</v>
+      <c r="F15" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>21</v>
+      <c r="H15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>21</v>
@@ -1686,25 +1729,25 @@
         <v>21</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>21</v>
@@ -1713,22 +1756,25 @@
         <v>21</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1792,8 +1838,8 @@
       <c r="U16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="5" t="s">
-        <v>22</v>
+      <c r="V16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="W16" s="5" t="s">
         <v>22</v>
@@ -1804,8 +1850,11 @@
       <c r="Y16" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="Z16" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1819,7 +1868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
